--- a/indeed_search_set.xlsx
+++ b/indeed_search_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software\gnarfle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2924801D-96FA-4384-87BB-B705B383F054}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D292A4-AB89-45CF-A1E4-FA6375C17364}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4B06B630-D528-487E-B368-8826F295A53A}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4B06B630-D528-487E-B368-8826F295A53A}"/>
   </bookViews>
   <sheets>
     <sheet name="indeed_search_set" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>search_keyword_list</t>
   </si>
@@ -39,9 +39,6 @@
     <t>iss_pk</t>
   </si>
   <si>
-    <t>data analyst</t>
-  </si>
-  <si>
     <t>creation_date</t>
   </si>
   <si>
@@ -51,34 +48,46 @@
     <t>search_run_date</t>
   </si>
   <si>
-    <t>piano player</t>
-  </si>
-  <si>
-    <t>pizza delivery</t>
-  </si>
-  <si>
     <t>search_zip_code</t>
   </si>
   <si>
-    <t>python developer</t>
-  </si>
-  <si>
-    <t>19124</t>
-  </si>
-  <si>
-    <t>10018</t>
-  </si>
-  <si>
-    <t>90210</t>
-  </si>
-  <si>
-    <t>60606</t>
-  </si>
-  <si>
     <t>30303</t>
   </si>
   <si>
-    <t>75024</t>
+    <t>02109</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>90021</t>
+  </si>
+  <si>
+    <t>60605</t>
+  </si>
+  <si>
+    <t>75202</t>
+  </si>
+  <si>
+    <t>77002</t>
+  </si>
+  <si>
+    <t>20004</t>
+  </si>
+  <si>
+    <t>19102</t>
+  </si>
+  <si>
+    <t>33131</t>
+  </si>
+  <si>
+    <t>85003</t>
+  </si>
+  <si>
+    <t>94111</t>
+  </si>
+  <si>
+    <t>python+tableau</t>
   </si>
 </sst>
 </file>
@@ -434,7 +443,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,16 +463,16 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -471,13 +480,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -488,33 +497,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -525,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -542,13 +549,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1">
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -559,13 +566,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -576,13 +583,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -593,13 +600,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -610,13 +617,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -627,13 +634,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -644,13 +651,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -661,34 +668,20 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
-        <v>43715</v>
+        <v>43720</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43715</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/indeed_search_set.xlsx
+++ b/indeed_search_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software\gnarfle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D292A4-AB89-45CF-A1E4-FA6375C17364}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C70977-3F00-4B9B-A55C-61B55A14081F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4B06B630-D528-487E-B368-8826F295A53A}"/>
   </bookViews>
@@ -123,9 +123,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,7 +444,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,7 +484,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>43720</v>
@@ -517,8 +518,8 @@
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>43720</v>

--- a/indeed_search_set.xlsx
+++ b/indeed_search_set.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software\gnarfle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C70977-3F00-4B9B-A55C-61B55A14081F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C2CEAA-DBE4-43B0-9345-904D84130C00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4B06B630-D528-487E-B368-8826F295A53A}"/>
   </bookViews>
   <sheets>
     <sheet name="indeed_search_set" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
   <si>
     <t>search_keyword_list</t>
   </si>
@@ -63,31 +64,37 @@
     <t>90021</t>
   </si>
   <si>
+    <t>75202</t>
+  </si>
+  <si>
+    <t>77002</t>
+  </si>
+  <si>
+    <t>20004</t>
+  </si>
+  <si>
+    <t>19102</t>
+  </si>
+  <si>
+    <t>33131</t>
+  </si>
+  <si>
+    <t>85003</t>
+  </si>
+  <si>
+    <t>94111</t>
+  </si>
+  <si>
     <t>60605</t>
   </si>
   <si>
-    <t>75202</t>
-  </si>
-  <si>
-    <t>77002</t>
-  </si>
-  <si>
-    <t>20004</t>
-  </si>
-  <si>
-    <t>19102</t>
-  </si>
-  <si>
-    <t>33131</t>
-  </si>
-  <si>
-    <t>85003</t>
-  </si>
-  <si>
-    <t>94111</t>
-  </si>
-  <si>
-    <t>python+tableau</t>
+    <t>python+pandas</t>
+  </si>
+  <si>
+    <t>python+BeautifulSoup</t>
+  </si>
+  <si>
+    <t>data+analyst</t>
   </si>
 </sst>
 </file>
@@ -441,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EFD80B-D021-4B40-BBFB-AB0D30A64FC4}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
@@ -481,13 +488,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -498,31 +505,30 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="1">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -533,13 +539,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -550,13 +556,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -567,13 +573,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -584,13 +590,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -601,13 +607,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="1">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -618,13 +624,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -635,13 +641,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -652,13 +658,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -669,23 +675,392 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>43720</v>
+        <v>43722</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA167F0-9B5E-4A2D-A0C6-CD5825291138}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43722</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/indeed_search_set.xlsx
+++ b/indeed_search_set.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software\gnarfle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C2CEAA-DBE4-43B0-9345-904D84130C00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27A3B59-9669-4B83-96F6-3A60B3CF4257}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4B06B630-D528-487E-B368-8826F295A53A}"/>
   </bookViews>
   <sheets>
     <sheet name="indeed_search_set" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
   <si>
     <t>search_keyword_list</t>
   </si>
@@ -88,13 +87,40 @@
     <t>60605</t>
   </si>
   <si>
-    <t>python+pandas</t>
-  </si>
-  <si>
-    <t>python+BeautifulSoup</t>
-  </si>
-  <si>
-    <t>data+analyst</t>
+    <t>92501</t>
+  </si>
+  <si>
+    <t>48226</t>
+  </si>
+  <si>
+    <t>98104</t>
+  </si>
+  <si>
+    <t>55402</t>
+  </si>
+  <si>
+    <t>92101</t>
+  </si>
+  <si>
+    <t>33602</t>
+  </si>
+  <si>
+    <t>80204</t>
+  </si>
+  <si>
+    <t>63101</t>
+  </si>
+  <si>
+    <t>19406</t>
+  </si>
+  <si>
+    <t>career+advisor</t>
+  </si>
+  <si>
+    <t>career+coach</t>
+  </si>
+  <si>
+    <t>career+education</t>
   </si>
 </sst>
 </file>
@@ -448,15 +474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EFD80B-D021-4B40-BBFB-AB0D30A64FC4}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
@@ -485,16 +509,17 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1">
-        <v>43722</v>
+        <f t="shared" ref="D2:D65" ca="1" si="0">NOW()</f>
+        <v>43724.710871180556</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -502,16 +527,17 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>43722</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -519,16 +545,17 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
-        <v>43722</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -536,16 +563,17 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
-        <v>43722</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -553,16 +581,17 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>43722</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -570,16 +599,17 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
-        <v>43722</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -587,16 +617,17 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
-        <v>43722</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -604,16 +635,17 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
-        <v>43722</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -621,16 +653,17 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1">
-        <v>43722</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -638,16 +671,17 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
-        <v>43722</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -655,16 +689,17 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D12" s="1">
-        <v>43722</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -672,18 +707,991 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>96</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>100</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D39" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>91</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>95</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E13" t="b">
+      <c r="D58" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>100</v>
+      </c>
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>101</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>103</v>
+      </c>
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>105</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" ref="D66:D67" ca="1" si="1">NOW()</f>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>106</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43724.710871180556</v>
+      </c>
+      <c r="E67" t="b">
         <v>0</v>
       </c>
     </row>
@@ -691,376 +1699,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA167F0-9B5E-4A2D-A0C6-CD5825291138}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1">
-        <v>43722</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/indeed_search_set.xlsx
+++ b/indeed_search_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software\gnarfle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27A3B59-9669-4B83-96F6-3A60B3CF4257}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1446504B-FF0E-4B52-B875-001C332713FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4B06B630-D528-487E-B368-8826F295A53A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="32">
   <si>
     <t>search_keyword_list</t>
   </si>
@@ -114,26 +114,38 @@
     <t>19406</t>
   </si>
   <si>
-    <t>career+advisor</t>
+    <t>support+services+aide</t>
   </si>
   <si>
-    <t>career+coach</t>
+    <t>data+engineering</t>
   </si>
   <si>
-    <t>career+education</t>
+    <t>behavior+analyst</t>
+  </si>
+  <si>
+    <t>data+architect</t>
+  </si>
+  <si>
+    <t>big+data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,10 +168,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,9 +487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EFD80B-D021-4B40-BBFB-AB0D30A64FC4}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -508,801 +523,666 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>85</v>
-      </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D65" ca="1" si="0">NOW()</f>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>86</v>
-      </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>87</v>
-      </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>88</v>
-      </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>89</v>
-      </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>90</v>
-      </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>91</v>
-      </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>92</v>
-      </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>93</v>
-      </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>94</v>
-      </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>95</v>
-      </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>96</v>
-      </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>97</v>
-      </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>98</v>
-      </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>99</v>
-      </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>100</v>
-      </c>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>101</v>
-      </c>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>102</v>
-      </c>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>103</v>
-      </c>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>104</v>
-      </c>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>105</v>
-      </c>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>106</v>
-      </c>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>85</v>
-      </c>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>86</v>
-      </c>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>87</v>
-      </c>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>88</v>
-      </c>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>89</v>
-      </c>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>90</v>
-      </c>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>91</v>
-      </c>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>92</v>
-      </c>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>93</v>
-      </c>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>94</v>
-      </c>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>95</v>
-      </c>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>96</v>
-      </c>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>97</v>
-      </c>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>98</v>
-      </c>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>99</v>
-      </c>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>100</v>
-      </c>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
         <v>20</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>101</v>
-      </c>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>102</v>
-      </c>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
         <v>22</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>103</v>
-      </c>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>104</v>
-      </c>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>105</v>
-      </c>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>106</v>
-      </c>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>26</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>85</v>
-      </c>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>29</v>
       </c>
@@ -1311,16 +1191,13 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>86</v>
-      </c>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>29</v>
       </c>
@@ -1329,16 +1206,13 @@
       </c>
       <c r="D47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>87</v>
-      </c>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>29</v>
       </c>
@@ -1347,16 +1221,13 @@
       </c>
       <c r="D48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>88</v>
-      </c>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>29</v>
       </c>
@@ -1365,16 +1236,13 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>89</v>
-      </c>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>29</v>
       </c>
@@ -1383,16 +1251,13 @@
       </c>
       <c r="D50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>90</v>
-      </c>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>29</v>
       </c>
@@ -1401,16 +1266,13 @@
       </c>
       <c r="D51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>91</v>
-      </c>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>29</v>
       </c>
@@ -1419,16 +1281,13 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>92</v>
-      </c>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>29</v>
       </c>
@@ -1437,16 +1296,13 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>93</v>
-      </c>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>29</v>
       </c>
@@ -1455,16 +1311,13 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>94</v>
-      </c>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>29</v>
       </c>
@@ -1473,16 +1326,13 @@
       </c>
       <c r="D55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>95</v>
-      </c>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>29</v>
       </c>
@@ -1491,16 +1341,13 @@
       </c>
       <c r="D56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>96</v>
-      </c>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>29</v>
       </c>
@@ -1509,16 +1356,13 @@
       </c>
       <c r="D57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>97</v>
-      </c>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>29</v>
       </c>
@@ -1527,16 +1371,13 @@
       </c>
       <c r="D58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>98</v>
-      </c>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>29</v>
       </c>
@@ -1545,16 +1386,13 @@
       </c>
       <c r="D59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>99</v>
-      </c>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>29</v>
       </c>
@@ -1563,16 +1401,13 @@
       </c>
       <c r="D60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>100</v>
-      </c>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>29</v>
       </c>
@@ -1581,16 +1416,13 @@
       </c>
       <c r="D61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>101</v>
-      </c>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>29</v>
       </c>
@@ -1599,16 +1431,13 @@
       </c>
       <c r="D62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>102</v>
-      </c>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>29</v>
       </c>
@@ -1617,16 +1446,13 @@
       </c>
       <c r="D63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>103</v>
-      </c>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>29</v>
       </c>
@@ -1635,16 +1461,13 @@
       </c>
       <c r="D64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>104</v>
-      </c>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>29</v>
       </c>
@@ -1653,16 +1476,13 @@
       </c>
       <c r="D65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>105</v>
-      </c>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>29</v>
       </c>
@@ -1670,17 +1490,14 @@
         <v>25</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" ref="D66:D67" ca="1" si="1">NOW()</f>
-        <v>43724.710871180556</v>
+        <f t="shared" ref="D66:D129" ca="1" si="1">NOW()</f>
+        <v>43725.41544733796</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>106</v>
-      </c>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>29</v>
       </c>
@@ -1689,9 +1506,1674 @@
       </c>
       <c r="D67" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43724.710871180556</v>
+        <v>43725.41544733796</v>
       </c>
       <c r="E67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" t="s">
+        <v>21</v>
+      </c>
+      <c r="D107" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>30</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" s="1">
+        <f t="shared" ref="D130:D178" ca="1" si="2">NOW()</f>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>30</v>
+      </c>
+      <c r="C133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>30</v>
+      </c>
+      <c r="C135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>30</v>
+      </c>
+      <c r="C139" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>30</v>
+      </c>
+      <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" t="s">
+        <v>18</v>
+      </c>
+      <c r="D149" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>30</v>
+      </c>
+      <c r="C152" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="C153" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>30</v>
+      </c>
+      <c r="C154" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>30</v>
+      </c>
+      <c r="C156" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B158" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B159" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B160" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C160" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B161" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B162" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B163" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B164" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B165" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B166" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C166" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B167" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B168" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B169" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B170" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B171" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C171" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C172" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B173" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C173" t="s">
+        <v>20</v>
+      </c>
+      <c r="D173" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B174" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C174" t="s">
+        <v>21</v>
+      </c>
+      <c r="D174" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B175" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" t="s">
+        <v>22</v>
+      </c>
+      <c r="D175" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B176" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B177" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B178" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" t="s">
+        <v>25</v>
+      </c>
+      <c r="D178" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>43725.41544733796</v>
+      </c>
+      <c r="E178" t="b">
         <v>0</v>
       </c>
     </row>
